--- a/biology/Botanique/Rorippa/Rorippa.xlsx
+++ b/biology/Botanique/Rorippa/Rorippa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rorippa est un genre de plantes à fleurs de la famille des Brassicaceae contenant environ 80 espèces endémiques d'Europe, d'Asie centrale, d'Afrique et d'Amérique du Nord. Les espèces de Rorippa sont des plantes annuelles à vivaces et ont habituellement des fleurs jaunes et une odeur poivrée.
 Rorippa contenait auparavant plusieurs espèces de cresson de fontaine qui sont maintenant classées dans le genre Nasturtium. En particulier Rorippa nasturtium-aquaticum (maintenant Nasturtium officinale) et Rorippa microphylla (maintenant Nasturtium microphyllum) sont souvent cités à tort comme espèces de Rorippa.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fournier, le mot Rorippa (qu'il orthographie Roripa), est un « nom fabriqué de toutes pièces par Scopoli et dépourvu de sens »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fournier, le mot Rorippa (qu'il orthographie Roripa), est un « nom fabriqué de toutes pièces par Scopoli et dépourvu de sens ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (27 sept. 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (27 sept. 2011) :
 Rorippa amphibia
 Rorippa anceps
 Rorippa armoracioides
@@ -576,7 +592,7 @@
 Rorippa pyrenaica
 Rorippa sinuata
 Rorippa sylvestris
-Selon ITIS      (27 sept. 2011)[3] :
+Selon ITIS      (27 sept. 2011) :
 Rorippa alpina (S. Watson) Rydb.
 Rorippa amphibia (L.) Besser
 Rorippa aquatica (Eaton) E.J. Palmer &amp; Steyerm.
